--- a/pico-synth-sound/table_wave.xlsx
+++ b/pico-synth-sound/table_wave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6113d96ddfeabfd/22_Development/34_pico_synth/pico-synth-sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{AC4FE56F-2F19-49EC-A587-FCF599BE2E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86CD5354-AE69-470F-83BC-5196B2BB59A4}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{AC4FE56F-2F19-49EC-A587-FCF599BE2E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD92948-7776-4B6F-8E89-815F32FEE006}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{3702E6F2-A1CC-4EE4-BA8C-E9C8B4643518}"/>
+    <workbookView xWindow="5040" yWindow="3975" windowWidth="21600" windowHeight="11295" xr2:uid="{3702E6F2-A1CC-4EE4-BA8C-E9C8B4643518}"/>
   </bookViews>
   <sheets>
     <sheet name="sine" sheetId="1" r:id="rId1"/>
@@ -1005,43 +1005,43 @@
                   <c:v>23586</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25080</c:v>
+                  <c:v>25079</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26558</c:v>
+                  <c:v>26557</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>28020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29466</c:v>
+                  <c:v>29465</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>30893</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32303</c:v>
+                  <c:v>32302</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>33692</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35062</c:v>
+                  <c:v>35061</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36410</c:v>
+                  <c:v>36409</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>37736</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39040</c:v>
+                  <c:v>39039</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40320</c:v>
+                  <c:v>40319</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41576</c:v>
+                  <c:v>41575</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>42806</c:v>
@@ -1050,205 +1050,205 @@
                   <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45190</c:v>
+                  <c:v>45189</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>46341</c:v>
+                  <c:v>46340</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>47464</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>48559</c:v>
+                  <c:v>48558</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>49624</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50660</c:v>
+                  <c:v>50659</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>51665</c:v>
+                  <c:v>51664</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>52639</c:v>
+                  <c:v>52638</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53581</c:v>
+                  <c:v>53580</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>54491</c:v>
+                  <c:v>54490</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>55368</c:v>
+                  <c:v>55367</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>56212</c:v>
+                  <c:v>56211</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>57022</c:v>
+                  <c:v>57021</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>57798</c:v>
+                  <c:v>57797</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>58538</c:v>
+                  <c:v>58537</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>59244</c:v>
+                  <c:v>59243</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>59914</c:v>
+                  <c:v>59913</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>60547</c:v>
+                  <c:v>60546</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>61145</c:v>
+                  <c:v>61144</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>61705</c:v>
+                  <c:v>61704</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>62228</c:v>
+                  <c:v>62227</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>62714</c:v>
+                  <c:v>62713</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>63162</c:v>
+                  <c:v>63161</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>63572</c:v>
+                  <c:v>63571</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>63944</c:v>
+                  <c:v>63943</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>64277</c:v>
+                  <c:v>64276</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>64571</c:v>
+                  <c:v>64570</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>64827</c:v>
+                  <c:v>64826</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>65043</c:v>
+                  <c:v>65042</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>65220</c:v>
+                  <c:v>65219</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>65358</c:v>
+                  <c:v>65357</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>65457</c:v>
+                  <c:v>65456</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>65516</c:v>
+                  <c:v>65515</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65536</c:v>
+                  <c:v>65535</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65516</c:v>
+                  <c:v>65515</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>65457</c:v>
+                  <c:v>65456</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>65358</c:v>
+                  <c:v>65357</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>65220</c:v>
+                  <c:v>65219</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>65043</c:v>
+                  <c:v>65042</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>64827</c:v>
+                  <c:v>64826</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>64571</c:v>
+                  <c:v>64570</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>64277</c:v>
+                  <c:v>64276</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>63944</c:v>
+                  <c:v>63943</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>63572</c:v>
+                  <c:v>63571</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>63162</c:v>
+                  <c:v>63161</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>62714</c:v>
+                  <c:v>62713</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>62228</c:v>
+                  <c:v>62227</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>61705</c:v>
+                  <c:v>61704</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>61145</c:v>
+                  <c:v>61144</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>60547</c:v>
+                  <c:v>60546</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>59914</c:v>
+                  <c:v>59913</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>59244</c:v>
+                  <c:v>59243</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>58538</c:v>
+                  <c:v>58537</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>57798</c:v>
+                  <c:v>57797</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>57022</c:v>
+                  <c:v>57021</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>56212</c:v>
+                  <c:v>56211</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>55368</c:v>
+                  <c:v>55367</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>54491</c:v>
+                  <c:v>54490</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>53581</c:v>
+                  <c:v>53580</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>52639</c:v>
+                  <c:v>52638</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>51665</c:v>
+                  <c:v>51664</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>50660</c:v>
+                  <c:v>50659</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>49624</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>48559</c:v>
+                  <c:v>48558</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>47464</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>46341</c:v>
+                  <c:v>46340</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>45190</c:v>
+                  <c:v>45189</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>44011</c:v>
@@ -1257,43 +1257,43 @@
                   <c:v>42806</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>41576</c:v>
+                  <c:v>41575</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>40320</c:v>
+                  <c:v>40319</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>39040</c:v>
+                  <c:v>39039</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>37736</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>36410</c:v>
+                  <c:v>36409</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>35062</c:v>
+                  <c:v>35061</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>33692</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>32303</c:v>
+                  <c:v>32302</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>30893</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>29466</c:v>
+                  <c:v>29465</c:v>
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>28020</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>26558</c:v>
+                  <c:v>26557</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>25080</c:v>
+                  <c:v>25079</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>23586</c:v>
@@ -1389,43 +1389,43 @@
                   <c:v>-23586</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-25080</c:v>
+                  <c:v>-25079</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-26558</c:v>
+                  <c:v>-26557</c:v>
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>-28020</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-29466</c:v>
+                  <c:v>-29465</c:v>
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>-30893</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-32303</c:v>
+                  <c:v>-32302</c:v>
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>-33692</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-35062</c:v>
+                  <c:v>-35061</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-36410</c:v>
+                  <c:v>-36409</c:v>
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>-37736</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-39040</c:v>
+                  <c:v>-39039</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-40320</c:v>
+                  <c:v>-40319</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-41576</c:v>
+                  <c:v>-41575</c:v>
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>-42806</c:v>
@@ -1434,205 +1434,205 @@
                   <c:v>-44011</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-45190</c:v>
+                  <c:v>-45189</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-46341</c:v>
+                  <c:v>-46340</c:v>
                 </c:pt>
                 <c:pt idx="161">
                   <c:v>-47464</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-48559</c:v>
+                  <c:v>-48558</c:v>
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>-49624</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-50660</c:v>
+                  <c:v>-50659</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-51665</c:v>
+                  <c:v>-51664</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-52639</c:v>
+                  <c:v>-52638</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-53581</c:v>
+                  <c:v>-53580</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-54491</c:v>
+                  <c:v>-54490</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-55368</c:v>
+                  <c:v>-55367</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-56212</c:v>
+                  <c:v>-56211</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-57022</c:v>
+                  <c:v>-57021</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-57798</c:v>
+                  <c:v>-57797</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-58538</c:v>
+                  <c:v>-58537</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-59244</c:v>
+                  <c:v>-59243</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-59914</c:v>
+                  <c:v>-59913</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-60547</c:v>
+                  <c:v>-60546</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-61145</c:v>
+                  <c:v>-61144</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-61705</c:v>
+                  <c:v>-61704</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-62228</c:v>
+                  <c:v>-62227</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-62714</c:v>
+                  <c:v>-62713</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-63162</c:v>
+                  <c:v>-63161</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-63572</c:v>
+                  <c:v>-63571</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-63944</c:v>
+                  <c:v>-63943</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-64277</c:v>
+                  <c:v>-64276</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-64571</c:v>
+                  <c:v>-64570</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-64827</c:v>
+                  <c:v>-64826</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-65043</c:v>
+                  <c:v>-65042</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-65220</c:v>
+                  <c:v>-65219</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-65358</c:v>
+                  <c:v>-65357</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-65457</c:v>
+                  <c:v>-65456</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-65516</c:v>
+                  <c:v>-65515</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-65536</c:v>
+                  <c:v>-65535</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-65516</c:v>
+                  <c:v>-65515</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-65457</c:v>
+                  <c:v>-65456</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-65358</c:v>
+                  <c:v>-65357</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-65220</c:v>
+                  <c:v>-65219</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-65043</c:v>
+                  <c:v>-65042</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-64827</c:v>
+                  <c:v>-64826</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-64571</c:v>
+                  <c:v>-64570</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-64277</c:v>
+                  <c:v>-64276</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-63944</c:v>
+                  <c:v>-63943</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-63572</c:v>
+                  <c:v>-63571</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-63162</c:v>
+                  <c:v>-63161</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-62714</c:v>
+                  <c:v>-62713</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-62228</c:v>
+                  <c:v>-62227</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-61705</c:v>
+                  <c:v>-61704</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-61145</c:v>
+                  <c:v>-61144</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-60547</c:v>
+                  <c:v>-60546</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-59914</c:v>
+                  <c:v>-59913</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-59244</c:v>
+                  <c:v>-59243</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-58538</c:v>
+                  <c:v>-58537</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-57798</c:v>
+                  <c:v>-57797</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-57022</c:v>
+                  <c:v>-57021</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-56212</c:v>
+                  <c:v>-56211</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-55368</c:v>
+                  <c:v>-55367</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-54491</c:v>
+                  <c:v>-54490</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-53581</c:v>
+                  <c:v>-53580</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-52639</c:v>
+                  <c:v>-52638</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-51665</c:v>
+                  <c:v>-51664</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-50660</c:v>
+                  <c:v>-50659</c:v>
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>-49624</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-48559</c:v>
+                  <c:v>-48558</c:v>
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>-47464</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-46341</c:v>
+                  <c:v>-46340</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-45190</c:v>
+                  <c:v>-45189</c:v>
                 </c:pt>
                 <c:pt idx="226">
                   <c:v>-44011</c:v>
@@ -1641,43 +1641,43 @@
                   <c:v>-42806</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-41576</c:v>
+                  <c:v>-41575</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-40320</c:v>
+                  <c:v>-40319</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-39040</c:v>
+                  <c:v>-39039</c:v>
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>-37736</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-36410</c:v>
+                  <c:v>-36409</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-35062</c:v>
+                  <c:v>-35061</c:v>
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>-33692</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-32303</c:v>
+                  <c:v>-32302</c:v>
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>-30893</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-29466</c:v>
+                  <c:v>-29465</c:v>
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>-28020</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-26558</c:v>
+                  <c:v>-26557</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-25080</c:v>
+                  <c:v>-25079</c:v>
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>-23586</c:v>
@@ -2855,193 +2855,193 @@
                   <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33792</c:v>
+                  <c:v>33791</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34816</c:v>
+                  <c:v>34815</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35840</c:v>
+                  <c:v>35839</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36864</c:v>
+                  <c:v>36863</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37888</c:v>
+                  <c:v>37887</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38912</c:v>
+                  <c:v>38911</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39936</c:v>
+                  <c:v>39935</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40960</c:v>
+                  <c:v>40959</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41984</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43008</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44032</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45056</c:v>
+                  <c:v>45055</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46080</c:v>
+                  <c:v>46079</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47104</c:v>
+                  <c:v>47103</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48128</c:v>
+                  <c:v>48127</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49152</c:v>
+                  <c:v>49151</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50176</c:v>
+                  <c:v>50175</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51200</c:v>
+                  <c:v>51199</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52224</c:v>
+                  <c:v>52223</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53248</c:v>
+                  <c:v>53247</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54272</c:v>
+                  <c:v>54271</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55296</c:v>
+                  <c:v>55295</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56320</c:v>
+                  <c:v>56319</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57344</c:v>
+                  <c:v>57343</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58368</c:v>
+                  <c:v>58367</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59392</c:v>
+                  <c:v>59391</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60416</c:v>
+                  <c:v>60415</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61440</c:v>
+                  <c:v>61439</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62464</c:v>
+                  <c:v>62463</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63488</c:v>
+                  <c:v>63487</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64512</c:v>
+                  <c:v>64511</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65536</c:v>
+                  <c:v>65535</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>64512</c:v>
+                  <c:v>64511</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>63488</c:v>
+                  <c:v>63487</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>62464</c:v>
+                  <c:v>62463</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>61440</c:v>
+                  <c:v>61439</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>60416</c:v>
+                  <c:v>60415</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>59392</c:v>
+                  <c:v>59391</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>58368</c:v>
+                  <c:v>58367</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>57344</c:v>
+                  <c:v>57343</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>56320</c:v>
+                  <c:v>56319</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>55296</c:v>
+                  <c:v>55295</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>54272</c:v>
+                  <c:v>54271</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>53248</c:v>
+                  <c:v>53247</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>52224</c:v>
+                  <c:v>52223</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>51200</c:v>
+                  <c:v>51199</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>50176</c:v>
+                  <c:v>50175</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>49152</c:v>
+                  <c:v>49151</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>48128</c:v>
+                  <c:v>48127</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>47104</c:v>
+                  <c:v>47103</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>46080</c:v>
+                  <c:v>46079</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>45056</c:v>
+                  <c:v>45055</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>44032</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43008</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>41984</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>40960</c:v>
+                  <c:v>40959</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>39936</c:v>
+                  <c:v>39935</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>38912</c:v>
+                  <c:v>38911</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>37888</c:v>
+                  <c:v>37887</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>36864</c:v>
+                  <c:v>36863</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>35840</c:v>
+                  <c:v>35839</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>34816</c:v>
+                  <c:v>34815</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>33792</c:v>
+                  <c:v>33791</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>32768</c:v>
@@ -3239,193 +3239,193 @@
                   <c:v>-32768</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-33792</c:v>
+                  <c:v>-33791</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-34816</c:v>
+                  <c:v>-34815</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-35840</c:v>
+                  <c:v>-35839</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-36864</c:v>
+                  <c:v>-36863</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-37888</c:v>
+                  <c:v>-37887</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-38912</c:v>
+                  <c:v>-38911</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-39936</c:v>
+                  <c:v>-39935</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-40960</c:v>
+                  <c:v>-40959</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-41984</c:v>
+                  <c:v>-41983</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-43008</c:v>
+                  <c:v>-43007</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-44032</c:v>
+                  <c:v>-44031</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-45056</c:v>
+                  <c:v>-45055</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-46080</c:v>
+                  <c:v>-46079</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-47104</c:v>
+                  <c:v>-47103</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-48128</c:v>
+                  <c:v>-48127</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-49152</c:v>
+                  <c:v>-49151</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-50176</c:v>
+                  <c:v>-50175</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-51200</c:v>
+                  <c:v>-51199</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-52224</c:v>
+                  <c:v>-52223</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-53248</c:v>
+                  <c:v>-53247</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-54272</c:v>
+                  <c:v>-54271</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-55296</c:v>
+                  <c:v>-55295</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-56320</c:v>
+                  <c:v>-56319</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-57344</c:v>
+                  <c:v>-57343</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-58368</c:v>
+                  <c:v>-58367</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-59392</c:v>
+                  <c:v>-59391</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-60416</c:v>
+                  <c:v>-60415</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-61440</c:v>
+                  <c:v>-61439</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-62464</c:v>
+                  <c:v>-62463</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-63488</c:v>
+                  <c:v>-63487</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-64512</c:v>
+                  <c:v>-64511</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-65536</c:v>
+                  <c:v>-65535</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-64512</c:v>
+                  <c:v>-64511</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-63488</c:v>
+                  <c:v>-63487</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-62464</c:v>
+                  <c:v>-62463</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-61440</c:v>
+                  <c:v>-61439</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-60416</c:v>
+                  <c:v>-60415</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-59392</c:v>
+                  <c:v>-59391</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-58368</c:v>
+                  <c:v>-58367</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-57344</c:v>
+                  <c:v>-57343</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-56320</c:v>
+                  <c:v>-56319</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-55296</c:v>
+                  <c:v>-55295</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-54272</c:v>
+                  <c:v>-54271</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-53248</c:v>
+                  <c:v>-53247</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-52224</c:v>
+                  <c:v>-52223</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-51200</c:v>
+                  <c:v>-51199</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-50176</c:v>
+                  <c:v>-50175</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-49152</c:v>
+                  <c:v>-49151</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-48128</c:v>
+                  <c:v>-48127</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-47104</c:v>
+                  <c:v>-47103</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-46080</c:v>
+                  <c:v>-46079</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-45056</c:v>
+                  <c:v>-45055</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-44032</c:v>
+                  <c:v>-44031</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-43008</c:v>
+                  <c:v>-43007</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-41984</c:v>
+                  <c:v>-41983</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-40960</c:v>
+                  <c:v>-40959</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-39936</c:v>
+                  <c:v>-39935</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-38912</c:v>
+                  <c:v>-38911</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-37888</c:v>
+                  <c:v>-37887</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-36864</c:v>
+                  <c:v>-36863</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-35840</c:v>
+                  <c:v>-35839</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-34816</c:v>
+                  <c:v>-34815</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-33792</c:v>
+                  <c:v>-33791</c:v>
                 </c:pt>
                 <c:pt idx="224">
                   <c:v>-32768</c:v>
@@ -4750,385 +4750,385 @@
                   <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>33280</c:v>
+                  <c:v>33279</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>33792</c:v>
+                  <c:v>33791</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>34304</c:v>
+                  <c:v>34303</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>34816</c:v>
+                  <c:v>34815</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>35328</c:v>
+                  <c:v>35327</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>35840</c:v>
+                  <c:v>35839</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>36352</c:v>
+                  <c:v>36351</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>36864</c:v>
+                  <c:v>36863</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>37376</c:v>
+                  <c:v>37375</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>37888</c:v>
+                  <c:v>37887</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>38400</c:v>
+                  <c:v>38399</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>38912</c:v>
+                  <c:v>38911</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>39424</c:v>
+                  <c:v>39423</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>39936</c:v>
+                  <c:v>39935</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>40448</c:v>
+                  <c:v>40447</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>40960</c:v>
+                  <c:v>40959</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>41472</c:v>
+                  <c:v>41471</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>41984</c:v>
+                  <c:v>41983</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42496</c:v>
+                  <c:v>42495</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43008</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43520</c:v>
+                  <c:v>43519</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>44032</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>44544</c:v>
+                  <c:v>44543</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>45056</c:v>
+                  <c:v>45055</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>45568</c:v>
+                  <c:v>45567</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>46080</c:v>
+                  <c:v>46079</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>46592</c:v>
+                  <c:v>46591</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>47104</c:v>
+                  <c:v>47103</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>47616</c:v>
+                  <c:v>47615</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>48128</c:v>
+                  <c:v>48127</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>48640</c:v>
+                  <c:v>48639</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>49152</c:v>
+                  <c:v>49151</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>49664</c:v>
+                  <c:v>49663</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>50176</c:v>
+                  <c:v>50175</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>50688</c:v>
+                  <c:v>50687</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>51200</c:v>
+                  <c:v>51199</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>51712</c:v>
+                  <c:v>51711</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>52224</c:v>
+                  <c:v>52223</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>52736</c:v>
+                  <c:v>52735</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>53248</c:v>
+                  <c:v>53247</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>53760</c:v>
+                  <c:v>53759</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>54272</c:v>
+                  <c:v>54271</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>54784</c:v>
+                  <c:v>54783</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>55296</c:v>
+                  <c:v>55295</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>55808</c:v>
+                  <c:v>55807</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>56320</c:v>
+                  <c:v>56319</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>56832</c:v>
+                  <c:v>56831</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>57344</c:v>
+                  <c:v>57343</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>57856</c:v>
+                  <c:v>57855</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>58368</c:v>
+                  <c:v>58367</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>58880</c:v>
+                  <c:v>58879</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>59392</c:v>
+                  <c:v>59391</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>59904</c:v>
+                  <c:v>59903</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>60416</c:v>
+                  <c:v>60415</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>60928</c:v>
+                  <c:v>60927</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>61440</c:v>
+                  <c:v>61439</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>61952</c:v>
+                  <c:v>61951</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>62464</c:v>
+                  <c:v>62463</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>62976</c:v>
+                  <c:v>62975</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>63488</c:v>
+                  <c:v>63487</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>64000</c:v>
+                  <c:v>63999</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>64512</c:v>
+                  <c:v>64511</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>65024</c:v>
+                  <c:v>65023</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-65536</c:v>
+                  <c:v>-65535</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-65024</c:v>
+                  <c:v>-65023</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-64512</c:v>
+                  <c:v>-64511</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-64000</c:v>
+                  <c:v>-63999</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-63488</c:v>
+                  <c:v>-63487</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-62976</c:v>
+                  <c:v>-62975</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-62464</c:v>
+                  <c:v>-62463</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-61952</c:v>
+                  <c:v>-61951</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-61440</c:v>
+                  <c:v>-61439</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-60928</c:v>
+                  <c:v>-60927</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-60416</c:v>
+                  <c:v>-60415</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-59904</c:v>
+                  <c:v>-59903</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-59392</c:v>
+                  <c:v>-59391</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-58880</c:v>
+                  <c:v>-58879</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-58368</c:v>
+                  <c:v>-58367</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-57856</c:v>
+                  <c:v>-57855</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-57344</c:v>
+                  <c:v>-57343</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-56832</c:v>
+                  <c:v>-56831</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-56320</c:v>
+                  <c:v>-56319</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-55808</c:v>
+                  <c:v>-55807</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-55296</c:v>
+                  <c:v>-55295</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-54784</c:v>
+                  <c:v>-54783</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-54272</c:v>
+                  <c:v>-54271</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-53760</c:v>
+                  <c:v>-53759</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-53248</c:v>
+                  <c:v>-53247</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-52736</c:v>
+                  <c:v>-52735</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-52224</c:v>
+                  <c:v>-52223</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-51712</c:v>
+                  <c:v>-51711</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-51200</c:v>
+                  <c:v>-51199</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-50688</c:v>
+                  <c:v>-50687</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-50176</c:v>
+                  <c:v>-50175</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-49664</c:v>
+                  <c:v>-49663</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-49152</c:v>
+                  <c:v>-49151</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-48640</c:v>
+                  <c:v>-48639</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-48128</c:v>
+                  <c:v>-48127</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-47616</c:v>
+                  <c:v>-47615</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-47104</c:v>
+                  <c:v>-47103</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-46592</c:v>
+                  <c:v>-46591</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-46080</c:v>
+                  <c:v>-46079</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-45568</c:v>
+                  <c:v>-45567</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-45056</c:v>
+                  <c:v>-45055</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-44544</c:v>
+                  <c:v>-44543</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-44032</c:v>
+                  <c:v>-44031</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-43520</c:v>
+                  <c:v>-43519</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-43008</c:v>
+                  <c:v>-43007</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-42496</c:v>
+                  <c:v>-42495</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-41984</c:v>
+                  <c:v>-41983</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-41472</c:v>
+                  <c:v>-41471</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-40960</c:v>
+                  <c:v>-40959</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-40448</c:v>
+                  <c:v>-40447</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-39936</c:v>
+                  <c:v>-39935</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-39424</c:v>
+                  <c:v>-39423</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-38912</c:v>
+                  <c:v>-38911</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-38400</c:v>
+                  <c:v>-38399</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-37888</c:v>
+                  <c:v>-37887</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-37376</c:v>
+                  <c:v>-37375</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-36864</c:v>
+                  <c:v>-36863</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-36352</c:v>
+                  <c:v>-36351</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-35840</c:v>
+                  <c:v>-35839</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-35328</c:v>
+                  <c:v>-35327</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-34816</c:v>
+                  <c:v>-34815</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-34304</c:v>
+                  <c:v>-34303</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-33792</c:v>
+                  <c:v>-33791</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-33280</c:v>
+                  <c:v>-33279</c:v>
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>-32768</c:v>
@@ -7643,8 +7643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6000EF0-D065-46A1-8DDF-C6E681684601}">
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D257"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>ROUND(C2*65536,0)</f>
+        <f>ROUND(C2*65535,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7693,7 +7693,7 @@
         <v>2.4541228522912288E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="2">ROUND(C3*65536,0)</f>
+        <f t="shared" ref="D3:D66" si="2">ROUND(C3*65535,0)</f>
         <v>1608</v>
       </c>
     </row>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>25080</v>
+        <v>25079</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>26558</v>
+        <v>26557</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>29466</v>
+        <v>29465</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>32303</v>
+        <v>32302</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>35062</v>
+        <v>35061</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>36410</v>
+        <v>36409</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>39040</v>
+        <v>39039</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>40320</v>
+        <v>40319</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>41576</v>
+        <v>41575</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -8204,7 +8204,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>45190</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>46341</v>
+        <v>46340</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>48559</v>
+        <v>48558</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>50660</v>
+        <v>50659</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>51665</v>
+        <v>51664</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>52639</v>
+        <v>52638</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>53581</v>
+        <v>53580</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>54491</v>
+        <v>54490</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -8374,7 +8374,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>55368</v>
+        <v>55367</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>56212</v>
+        <v>56211</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>57022</v>
+        <v>57021</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>57798</v>
+        <v>57797</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -8442,7 +8442,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>58538</v>
+        <v>58537</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>59244</v>
+        <v>59243</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>59914</v>
+        <v>59913</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>60547</v>
+        <v>60546</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>61145</v>
+        <v>61144</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>61705</v>
+        <v>61704</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>62228</v>
+        <v>62227</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>62714</v>
+        <v>62713</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>63162</v>
+        <v>63161</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>63572</v>
+        <v>63571</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>63944</v>
+        <v>63943</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>64277</v>
+        <v>64276</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>64571</v>
+        <v>64570</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>64827</v>
+        <v>64826</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>65043</v>
+        <v>65042</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>65220</v>
+        <v>65219</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>65358</v>
+        <v>65357</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>65457</v>
+        <v>65456</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -8748,7 +8748,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>65516</v>
+        <v>65515</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>65536</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -8781,8 +8781,8 @@
         <v>0.99969881869620425</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="5">ROUND(C67*65536,0)</f>
-        <v>65516</v>
+        <f t="shared" ref="D67:D130" si="5">ROUND(C67*65535,0)</f>
+        <v>65515</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="5"/>
-        <v>65457</v>
+        <v>65456</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="5"/>
-        <v>65358</v>
+        <v>65357</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -8833,7 +8833,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="5"/>
-        <v>65220</v>
+        <v>65219</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="5"/>
-        <v>65043</v>
+        <v>65042</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="5"/>
-        <v>64827</v>
+        <v>64826</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="D73">
         <f t="shared" si="5"/>
-        <v>64571</v>
+        <v>64570</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="5"/>
-        <v>64277</v>
+        <v>64276</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="5"/>
-        <v>63944</v>
+        <v>63943</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="D76">
         <f t="shared" si="5"/>
-        <v>63572</v>
+        <v>63571</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="5"/>
-        <v>63162</v>
+        <v>63161</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="D78">
         <f t="shared" si="5"/>
-        <v>62714</v>
+        <v>62713</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -8986,7 +8986,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="5"/>
-        <v>62228</v>
+        <v>62227</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="D80">
         <f t="shared" si="5"/>
-        <v>61705</v>
+        <v>61704</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="5"/>
-        <v>61145</v>
+        <v>61144</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="5"/>
-        <v>60547</v>
+        <v>60546</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="D83">
         <f t="shared" si="5"/>
-        <v>59914</v>
+        <v>59913</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="D84">
         <f t="shared" si="5"/>
-        <v>59244</v>
+        <v>59243</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="D85">
         <f t="shared" si="5"/>
-        <v>58538</v>
+        <v>58537</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="D86">
         <f t="shared" si="5"/>
-        <v>57798</v>
+        <v>57797</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -9122,7 +9122,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="5"/>
-        <v>57022</v>
+        <v>57021</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="D88">
         <f t="shared" si="5"/>
-        <v>56212</v>
+        <v>56211</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="D89">
         <f t="shared" si="5"/>
-        <v>55368</v>
+        <v>55367</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="D90">
         <f t="shared" si="5"/>
-        <v>54491</v>
+        <v>54490</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="D91">
         <f t="shared" si="5"/>
-        <v>53581</v>
+        <v>53580</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
@@ -9207,7 +9207,7 @@
       </c>
       <c r="D92">
         <f t="shared" si="5"/>
-        <v>52639</v>
+        <v>52638</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="D93">
         <f t="shared" si="5"/>
-        <v>51665</v>
+        <v>51664</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="D94">
         <f t="shared" si="5"/>
-        <v>50660</v>
+        <v>50659</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
@@ -9275,7 +9275,7 @@
       </c>
       <c r="D96">
         <f t="shared" si="5"/>
-        <v>48559</v>
+        <v>48558</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="D98">
         <f t="shared" si="5"/>
-        <v>46341</v>
+        <v>46340</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
@@ -9326,7 +9326,7 @@
       </c>
       <c r="D99">
         <f t="shared" si="5"/>
-        <v>45190</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="D102">
         <f t="shared" si="5"/>
-        <v>41576</v>
+        <v>41575</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="D103">
         <f t="shared" si="5"/>
-        <v>40320</v>
+        <v>40319</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
@@ -9411,7 +9411,7 @@
       </c>
       <c r="D104">
         <f t="shared" si="5"/>
-        <v>39040</v>
+        <v>39039</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
@@ -9445,7 +9445,7 @@
       </c>
       <c r="D106">
         <f t="shared" si="5"/>
-        <v>36410</v>
+        <v>36409</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="D107">
         <f t="shared" si="5"/>
-        <v>35062</v>
+        <v>35061</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="D109">
         <f t="shared" si="5"/>
-        <v>32303</v>
+        <v>32302</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="D111">
         <f t="shared" si="5"/>
-        <v>29466</v>
+        <v>29465</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="D113">
         <f t="shared" si="5"/>
-        <v>26558</v>
+        <v>26557</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="D114">
         <f t="shared" si="5"/>
-        <v>25080</v>
+        <v>25079</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
@@ -9869,7 +9869,7 @@
         <v>-2.454122852291208E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="8">ROUND(C131*65536,0)</f>
+        <f t="shared" ref="D131:D194" si="8">ROUND(C131*65535,0)</f>
         <v>-1608</v>
       </c>
     </row>
@@ -10125,7 +10125,7 @@
       </c>
       <c r="D146">
         <f t="shared" si="8"/>
-        <v>-25080</v>
+        <v>-25079</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
@@ -10142,7 +10142,7 @@
       </c>
       <c r="D147">
         <f t="shared" si="8"/>
-        <v>-26558</v>
+        <v>-26557</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="D149">
         <f t="shared" si="8"/>
-        <v>-29466</v>
+        <v>-29465</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="D151">
         <f t="shared" si="8"/>
-        <v>-32303</v>
+        <v>-32302</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
@@ -10244,7 +10244,7 @@
       </c>
       <c r="D153">
         <f t="shared" si="8"/>
-        <v>-35062</v>
+        <v>-35061</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="D154">
         <f t="shared" si="8"/>
-        <v>-36410</v>
+        <v>-36409</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="D156">
         <f t="shared" si="8"/>
-        <v>-39040</v>
+        <v>-39039</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="D157">
         <f t="shared" si="8"/>
-        <v>-40320</v>
+        <v>-40319</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="D158">
         <f t="shared" si="8"/>
-        <v>-41576</v>
+        <v>-41575</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
@@ -10380,7 +10380,7 @@
       </c>
       <c r="D161">
         <f t="shared" si="8"/>
-        <v>-45190</v>
+        <v>-45189</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="D162">
         <f t="shared" si="8"/>
-        <v>-46341</v>
+        <v>-46340</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="D164">
         <f t="shared" si="8"/>
-        <v>-48559</v>
+        <v>-48558</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
@@ -10465,7 +10465,7 @@
       </c>
       <c r="D166">
         <f t="shared" si="8"/>
-        <v>-50660</v>
+        <v>-50659</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
@@ -10482,7 +10482,7 @@
       </c>
       <c r="D167">
         <f t="shared" si="8"/>
-        <v>-51665</v>
+        <v>-51664</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="D168">
         <f t="shared" si="8"/>
-        <v>-52639</v>
+        <v>-52638</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="D169">
         <f t="shared" si="8"/>
-        <v>-53581</v>
+        <v>-53580</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="D170">
         <f t="shared" si="8"/>
-        <v>-54491</v>
+        <v>-54490</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="D171">
         <f t="shared" si="8"/>
-        <v>-55368</v>
+        <v>-55367</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="D172">
         <f t="shared" si="8"/>
-        <v>-56212</v>
+        <v>-56211</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="D173">
         <f t="shared" si="8"/>
-        <v>-57022</v>
+        <v>-57021</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
@@ -10601,7 +10601,7 @@
       </c>
       <c r="D174">
         <f t="shared" si="8"/>
-        <v>-57798</v>
+        <v>-57797</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
@@ -10618,7 +10618,7 @@
       </c>
       <c r="D175">
         <f t="shared" si="8"/>
-        <v>-58538</v>
+        <v>-58537</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="D176">
         <f t="shared" si="8"/>
-        <v>-59244</v>
+        <v>-59243</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
@@ -10652,7 +10652,7 @@
       </c>
       <c r="D177">
         <f t="shared" si="8"/>
-        <v>-59914</v>
+        <v>-59913</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="D178">
         <f t="shared" si="8"/>
-        <v>-60547</v>
+        <v>-60546</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
@@ -10686,7 +10686,7 @@
       </c>
       <c r="D179">
         <f t="shared" si="8"/>
-        <v>-61145</v>
+        <v>-61144</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="D180">
         <f t="shared" si="8"/>
-        <v>-61705</v>
+        <v>-61704</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
@@ -10720,7 +10720,7 @@
       </c>
       <c r="D181">
         <f t="shared" si="8"/>
-        <v>-62228</v>
+        <v>-62227</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="D182">
         <f t="shared" si="8"/>
-        <v>-62714</v>
+        <v>-62713</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
@@ -10754,7 +10754,7 @@
       </c>
       <c r="D183">
         <f t="shared" si="8"/>
-        <v>-63162</v>
+        <v>-63161</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="D184">
         <f t="shared" si="8"/>
-        <v>-63572</v>
+        <v>-63571</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="D185">
         <f t="shared" si="8"/>
-        <v>-63944</v>
+        <v>-63943</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="D186">
         <f t="shared" si="8"/>
-        <v>-64277</v>
+        <v>-64276</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="D187">
         <f t="shared" si="8"/>
-        <v>-64571</v>
+        <v>-64570</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="D188">
         <f t="shared" si="8"/>
-        <v>-64827</v>
+        <v>-64826</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
@@ -10856,7 +10856,7 @@
       </c>
       <c r="D189">
         <f t="shared" si="8"/>
-        <v>-65043</v>
+        <v>-65042</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="D190">
         <f t="shared" si="8"/>
-        <v>-65220</v>
+        <v>-65219</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="D191">
         <f t="shared" si="8"/>
-        <v>-65358</v>
+        <v>-65357</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="D192">
         <f t="shared" si="8"/>
-        <v>-65457</v>
+        <v>-65456</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="D193">
         <f t="shared" si="8"/>
-        <v>-65516</v>
+        <v>-65515</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
@@ -10941,7 +10941,7 @@
       </c>
       <c r="D194">
         <f t="shared" si="8"/>
-        <v>-65536</v>
+        <v>-65535</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
@@ -10957,8 +10957,8 @@
         <v>-0.99969881869620425</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D257" si="11">ROUND(C195*65536,0)</f>
-        <v>-65516</v>
+        <f t="shared" ref="D195:D257" si="11">ROUND(C195*65535,0)</f>
+        <v>-65515</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="D196">
         <f t="shared" si="11"/>
-        <v>-65457</v>
+        <v>-65456</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="D197">
         <f t="shared" si="11"/>
-        <v>-65358</v>
+        <v>-65357</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="D198">
         <f t="shared" si="11"/>
-        <v>-65220</v>
+        <v>-65219</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="D199">
         <f t="shared" si="11"/>
-        <v>-65043</v>
+        <v>-65042</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="D200">
         <f t="shared" si="11"/>
-        <v>-64827</v>
+        <v>-64826</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="D201">
         <f t="shared" si="11"/>
-        <v>-64571</v>
+        <v>-64570</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
@@ -11077,7 +11077,7 @@
       </c>
       <c r="D202">
         <f t="shared" si="11"/>
-        <v>-64277</v>
+        <v>-64276</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
@@ -11094,7 +11094,7 @@
       </c>
       <c r="D203">
         <f t="shared" si="11"/>
-        <v>-63944</v>
+        <v>-63943</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="D204">
         <f t="shared" si="11"/>
-        <v>-63572</v>
+        <v>-63571</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="D205">
         <f t="shared" si="11"/>
-        <v>-63162</v>
+        <v>-63161</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="D206">
         <f t="shared" si="11"/>
-        <v>-62714</v>
+        <v>-62713</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="D207">
         <f t="shared" si="11"/>
-        <v>-62228</v>
+        <v>-62227</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="D208">
         <f t="shared" si="11"/>
-        <v>-61705</v>
+        <v>-61704</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
@@ -11196,7 +11196,7 @@
       </c>
       <c r="D209">
         <f t="shared" si="11"/>
-        <v>-61145</v>
+        <v>-61144</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
@@ -11213,7 +11213,7 @@
       </c>
       <c r="D210">
         <f t="shared" si="11"/>
-        <v>-60547</v>
+        <v>-60546</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="D211">
         <f t="shared" si="11"/>
-        <v>-59914</v>
+        <v>-59913</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
@@ -11247,7 +11247,7 @@
       </c>
       <c r="D212">
         <f t="shared" si="11"/>
-        <v>-59244</v>
+        <v>-59243</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
@@ -11264,7 +11264,7 @@
       </c>
       <c r="D213">
         <f t="shared" si="11"/>
-        <v>-58538</v>
+        <v>-58537</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="D214">
         <f t="shared" si="11"/>
-        <v>-57798</v>
+        <v>-57797</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
@@ -11298,7 +11298,7 @@
       </c>
       <c r="D215">
         <f t="shared" si="11"/>
-        <v>-57022</v>
+        <v>-57021</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="D216">
         <f t="shared" si="11"/>
-        <v>-56212</v>
+        <v>-56211</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="D217">
         <f t="shared" si="11"/>
-        <v>-55368</v>
+        <v>-55367</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="D218">
         <f t="shared" si="11"/>
-        <v>-54491</v>
+        <v>-54490</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="D219">
         <f t="shared" si="11"/>
-        <v>-53581</v>
+        <v>-53580</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="D220">
         <f t="shared" si="11"/>
-        <v>-52639</v>
+        <v>-52638</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="D221">
         <f t="shared" si="11"/>
-        <v>-51665</v>
+        <v>-51664</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="D222">
         <f t="shared" si="11"/>
-        <v>-50660</v>
+        <v>-50659</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
@@ -11451,7 +11451,7 @@
       </c>
       <c r="D224">
         <f t="shared" si="11"/>
-        <v>-48559</v>
+        <v>-48558</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="D226">
         <f t="shared" si="11"/>
-        <v>-46341</v>
+        <v>-46340</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
@@ -11502,7 +11502,7 @@
       </c>
       <c r="D227">
         <f t="shared" si="11"/>
-        <v>-45190</v>
+        <v>-45189</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
@@ -11553,7 +11553,7 @@
       </c>
       <c r="D230">
         <f t="shared" si="11"/>
-        <v>-41576</v>
+        <v>-41575</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
@@ -11570,7 +11570,7 @@
       </c>
       <c r="D231">
         <f t="shared" si="11"/>
-        <v>-40320</v>
+        <v>-40319</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="D232">
         <f t="shared" si="11"/>
-        <v>-39040</v>
+        <v>-39039</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="D234">
         <f t="shared" si="11"/>
-        <v>-36410</v>
+        <v>-36409</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="D235">
         <f t="shared" si="11"/>
-        <v>-35062</v>
+        <v>-35061</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="D237">
         <f t="shared" si="11"/>
-        <v>-32303</v>
+        <v>-32302</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
@@ -11706,7 +11706,7 @@
       </c>
       <c r="D239">
         <f t="shared" si="11"/>
-        <v>-29466</v>
+        <v>-29465</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="D241">
         <f t="shared" si="11"/>
-        <v>-26558</v>
+        <v>-26557</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="D242">
         <f t="shared" si="11"/>
-        <v>-25080</v>
+        <v>-25079</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
@@ -12028,7 +12028,7 @@
   <dimension ref="A1:C257"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C257"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>ROUND(B2*65536,0)</f>
+        <f>ROUND(B2*65535,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12066,7 +12066,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="1">ROUND(B3*65536,0)</f>
+        <f t="shared" ref="C3:C66" si="1">ROUND(B3*65535,0)</f>
         <v>1024</v>
       </c>
     </row>
@@ -12483,7 +12483,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>33792</v>
+        <v>33791</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>34816</v>
+        <v>34815</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>35840</v>
+        <v>35839</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -12522,7 +12522,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>36864</v>
+        <v>36863</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>37888</v>
+        <v>37887</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
@@ -12548,7 +12548,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>38912</v>
+        <v>38911</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>39936</v>
+        <v>39935</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -12574,7 +12574,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>40960</v>
+        <v>40959</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
@@ -12587,7 +12587,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>41984</v>
+        <v>41983</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
@@ -12600,7 +12600,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>43008</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>44032</v>
+        <v>44031</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>45056</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
@@ -12639,7 +12639,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>46080</v>
+        <v>46079</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -12652,7 +12652,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>47104</v>
+        <v>47103</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>48128</v>
+        <v>48127</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -12678,7 +12678,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>49152</v>
+        <v>49151</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
@@ -12691,7 +12691,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>50176</v>
+        <v>50175</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>51200</v>
+        <v>51199</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>52224</v>
+        <v>52223</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -12730,7 +12730,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>53248</v>
+        <v>53247</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
@@ -12743,7 +12743,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>54272</v>
+        <v>54271</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>55296</v>
+        <v>55295</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>56320</v>
+        <v>56319</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>57344</v>
+        <v>57343</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>58368</v>
+        <v>58367</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>59392</v>
+        <v>59391</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>60416</v>
+        <v>60415</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
@@ -12834,7 +12834,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>61440</v>
+        <v>61439</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
@@ -12847,7 +12847,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>62464</v>
+        <v>62463</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>63488</v>
+        <v>63487</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
-        <v>64512</v>
+        <v>64511</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
@@ -12886,7 +12886,7 @@
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
-        <v>65536</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
@@ -12898,8 +12898,8 @@
         <v>0.984375</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="3">ROUND(B67*65536,0)</f>
-        <v>64512</v>
+        <f t="shared" ref="C67:C130" si="3">ROUND(B67*65535,0)</f>
+        <v>64511</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
@@ -12912,7 +12912,7 @@
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
-        <v>63488</v>
+        <v>63487</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
-        <v>62464</v>
+        <v>62463</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
@@ -12938,7 +12938,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
-        <v>61440</v>
+        <v>61439</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>60416</v>
+        <v>60415</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
-        <v>59392</v>
+        <v>59391</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
-        <v>58368</v>
+        <v>58367</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
-        <v>57344</v>
+        <v>57343</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
@@ -13003,7 +13003,7 @@
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
-        <v>56320</v>
+        <v>56319</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
@@ -13016,7 +13016,7 @@
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
-        <v>55296</v>
+        <v>55295</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
-        <v>54272</v>
+        <v>54271</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
@@ -13042,7 +13042,7 @@
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
-        <v>53248</v>
+        <v>53247</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
-        <v>52224</v>
+        <v>52223</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
@@ -13068,7 +13068,7 @@
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
-        <v>51200</v>
+        <v>51199</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
-        <v>50176</v>
+        <v>50175</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
-        <v>49152</v>
+        <v>49151</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
@@ -13107,7 +13107,7 @@
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
-        <v>48128</v>
+        <v>48127</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
@@ -13120,7 +13120,7 @@
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
-        <v>47104</v>
+        <v>47103</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
@@ -13133,7 +13133,7 @@
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
-        <v>46080</v>
+        <v>46079</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
@@ -13146,7 +13146,7 @@
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
-        <v>45056</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
-        <v>44032</v>
+        <v>44031</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
-        <v>43008</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
@@ -13185,7 +13185,7 @@
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
-        <v>41984</v>
+        <v>41983</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
@@ -13198,7 +13198,7 @@
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
-        <v>40960</v>
+        <v>40959</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
-        <v>39936</v>
+        <v>39935</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
@@ -13224,7 +13224,7 @@
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
-        <v>38912</v>
+        <v>38911</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
@@ -13237,7 +13237,7 @@
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
-        <v>37888</v>
+        <v>37887</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
@@ -13250,7 +13250,7 @@
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
-        <v>36864</v>
+        <v>36863</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
@@ -13263,7 +13263,7 @@
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
-        <v>35840</v>
+        <v>35839</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
-        <v>34816</v>
+        <v>34815</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
-        <v>33792</v>
+        <v>33791</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
@@ -13730,7 +13730,7 @@
         <v>-1.5625E-2</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C194" si="5">ROUND(B131*65536,0)</f>
+        <f t="shared" ref="C131:C194" si="5">ROUND(B131*65535,0)</f>
         <v>-1024</v>
       </c>
     </row>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="C163">
         <f t="shared" si="5"/>
-        <v>-33792</v>
+        <v>-33791</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
@@ -14160,7 +14160,7 @@
       </c>
       <c r="C164">
         <f t="shared" si="5"/>
-        <v>-34816</v>
+        <v>-34815</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="C165">
         <f t="shared" si="5"/>
-        <v>-35840</v>
+        <v>-35839</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="C166">
         <f t="shared" si="5"/>
-        <v>-36864</v>
+        <v>-36863</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
@@ -14199,7 +14199,7 @@
       </c>
       <c r="C167">
         <f t="shared" si="5"/>
-        <v>-37888</v>
+        <v>-37887</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="C168">
         <f t="shared" si="5"/>
-        <v>-38912</v>
+        <v>-38911</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="C169">
         <f t="shared" si="5"/>
-        <v>-39936</v>
+        <v>-39935</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
@@ -14238,7 +14238,7 @@
       </c>
       <c r="C170">
         <f t="shared" si="5"/>
-        <v>-40960</v>
+        <v>-40959</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
@@ -14251,7 +14251,7 @@
       </c>
       <c r="C171">
         <f t="shared" si="5"/>
-        <v>-41984</v>
+        <v>-41983</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
@@ -14264,7 +14264,7 @@
       </c>
       <c r="C172">
         <f t="shared" si="5"/>
-        <v>-43008</v>
+        <v>-43007</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
@@ -14277,7 +14277,7 @@
       </c>
       <c r="C173">
         <f t="shared" si="5"/>
-        <v>-44032</v>
+        <v>-44031</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
@@ -14290,7 +14290,7 @@
       </c>
       <c r="C174">
         <f t="shared" si="5"/>
-        <v>-45056</v>
+        <v>-45055</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="C175">
         <f t="shared" si="5"/>
-        <v>-46080</v>
+        <v>-46079</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="C176">
         <f t="shared" si="5"/>
-        <v>-47104</v>
+        <v>-47103</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="C177">
         <f t="shared" si="5"/>
-        <v>-48128</v>
+        <v>-48127</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
@@ -14342,7 +14342,7 @@
       </c>
       <c r="C178">
         <f t="shared" si="5"/>
-        <v>-49152</v>
+        <v>-49151</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
@@ -14355,7 +14355,7 @@
       </c>
       <c r="C179">
         <f t="shared" si="5"/>
-        <v>-50176</v>
+        <v>-50175</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
@@ -14368,7 +14368,7 @@
       </c>
       <c r="C180">
         <f t="shared" si="5"/>
-        <v>-51200</v>
+        <v>-51199</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
@@ -14381,7 +14381,7 @@
       </c>
       <c r="C181">
         <f t="shared" si="5"/>
-        <v>-52224</v>
+        <v>-52223</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
@@ -14394,7 +14394,7 @@
       </c>
       <c r="C182">
         <f t="shared" si="5"/>
-        <v>-53248</v>
+        <v>-53247</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
@@ -14407,7 +14407,7 @@
       </c>
       <c r="C183">
         <f t="shared" si="5"/>
-        <v>-54272</v>
+        <v>-54271</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="C184">
         <f t="shared" si="5"/>
-        <v>-55296</v>
+        <v>-55295</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="C185">
         <f t="shared" si="5"/>
-        <v>-56320</v>
+        <v>-56319</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="C186">
         <f t="shared" si="5"/>
-        <v>-57344</v>
+        <v>-57343</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="C187">
         <f t="shared" si="5"/>
-        <v>-58368</v>
+        <v>-58367</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
@@ -14472,7 +14472,7 @@
       </c>
       <c r="C188">
         <f t="shared" si="5"/>
-        <v>-59392</v>
+        <v>-59391</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="C189">
         <f t="shared" si="5"/>
-        <v>-60416</v>
+        <v>-60415</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
@@ -14498,7 +14498,7 @@
       </c>
       <c r="C190">
         <f t="shared" si="5"/>
-        <v>-61440</v>
+        <v>-61439</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
@@ -14511,7 +14511,7 @@
       </c>
       <c r="C191">
         <f t="shared" si="5"/>
-        <v>-62464</v>
+        <v>-62463</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
@@ -14524,7 +14524,7 @@
       </c>
       <c r="C192">
         <f t="shared" si="5"/>
-        <v>-63488</v>
+        <v>-63487</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="C193">
         <f t="shared" si="5"/>
-        <v>-64512</v>
+        <v>-64511</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
@@ -14550,7 +14550,7 @@
       </c>
       <c r="C194">
         <f t="shared" si="5"/>
-        <v>-65536</v>
+        <v>-65535</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
@@ -14562,8 +14562,8 @@
         <v>-0.984375</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C257" si="7">ROUND(B195*65536,0)</f>
-        <v>-64512</v>
+        <f t="shared" ref="C195:C257" si="7">ROUND(B195*65535,0)</f>
+        <v>-64511</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="C196">
         <f t="shared" si="7"/>
-        <v>-63488</v>
+        <v>-63487</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="C197">
         <f t="shared" si="7"/>
-        <v>-62464</v>
+        <v>-62463</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
@@ -14602,7 +14602,7 @@
       </c>
       <c r="C198">
         <f t="shared" si="7"/>
-        <v>-61440</v>
+        <v>-61439</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
@@ -14615,7 +14615,7 @@
       </c>
       <c r="C199">
         <f t="shared" si="7"/>
-        <v>-60416</v>
+        <v>-60415</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="C200">
         <f t="shared" si="7"/>
-        <v>-59392</v>
+        <v>-59391</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="C201">
         <f t="shared" si="7"/>
-        <v>-58368</v>
+        <v>-58367</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
@@ -14654,7 +14654,7 @@
       </c>
       <c r="C202">
         <f t="shared" si="7"/>
-        <v>-57344</v>
+        <v>-57343</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
@@ -14667,7 +14667,7 @@
       </c>
       <c r="C203">
         <f t="shared" si="7"/>
-        <v>-56320</v>
+        <v>-56319</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="C204">
         <f t="shared" si="7"/>
-        <v>-55296</v>
+        <v>-55295</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="C205">
         <f t="shared" si="7"/>
-        <v>-54272</v>
+        <v>-54271</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
@@ -14706,7 +14706,7 @@
       </c>
       <c r="C206">
         <f t="shared" si="7"/>
-        <v>-53248</v>
+        <v>-53247</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
@@ -14719,7 +14719,7 @@
       </c>
       <c r="C207">
         <f t="shared" si="7"/>
-        <v>-52224</v>
+        <v>-52223</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
@@ -14732,7 +14732,7 @@
       </c>
       <c r="C208">
         <f t="shared" si="7"/>
-        <v>-51200</v>
+        <v>-51199</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="C209">
         <f t="shared" si="7"/>
-        <v>-50176</v>
+        <v>-50175</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="C210">
         <f t="shared" si="7"/>
-        <v>-49152</v>
+        <v>-49151</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="C211">
         <f t="shared" si="7"/>
-        <v>-48128</v>
+        <v>-48127</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C212">
         <f t="shared" si="7"/>
-        <v>-47104</v>
+        <v>-47103</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
@@ -14797,7 +14797,7 @@
       </c>
       <c r="C213">
         <f t="shared" si="7"/>
-        <v>-46080</v>
+        <v>-46079</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
@@ -14810,7 +14810,7 @@
       </c>
       <c r="C214">
         <f t="shared" si="7"/>
-        <v>-45056</v>
+        <v>-45055</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="C215">
         <f t="shared" si="7"/>
-        <v>-44032</v>
+        <v>-44031</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
@@ -14836,7 +14836,7 @@
       </c>
       <c r="C216">
         <f t="shared" si="7"/>
-        <v>-43008</v>
+        <v>-43007</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
@@ -14849,7 +14849,7 @@
       </c>
       <c r="C217">
         <f t="shared" si="7"/>
-        <v>-41984</v>
+        <v>-41983</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
@@ -14862,7 +14862,7 @@
       </c>
       <c r="C218">
         <f t="shared" si="7"/>
-        <v>-40960</v>
+        <v>-40959</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
@@ -14875,7 +14875,7 @@
       </c>
       <c r="C219">
         <f t="shared" si="7"/>
-        <v>-39936</v>
+        <v>-39935</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
@@ -14888,7 +14888,7 @@
       </c>
       <c r="C220">
         <f t="shared" si="7"/>
-        <v>-38912</v>
+        <v>-38911</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
@@ -14901,7 +14901,7 @@
       </c>
       <c r="C221">
         <f t="shared" si="7"/>
-        <v>-37888</v>
+        <v>-37887</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
@@ -14914,7 +14914,7 @@
       </c>
       <c r="C222">
         <f t="shared" si="7"/>
-        <v>-36864</v>
+        <v>-36863</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.4">
@@ -14927,7 +14927,7 @@
       </c>
       <c r="C223">
         <f t="shared" si="7"/>
-        <v>-35840</v>
+        <v>-35839</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
@@ -14940,7 +14940,7 @@
       </c>
       <c r="C224">
         <f t="shared" si="7"/>
-        <v>-34816</v>
+        <v>-34815</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
@@ -14953,7 +14953,7 @@
       </c>
       <c r="C225">
         <f t="shared" si="7"/>
-        <v>-33792</v>
+        <v>-33791</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.4">
@@ -15384,8 +15384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803C00D8-FB9B-40F7-83C1-B973B670C11A}">
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C257" sqref="C2:C257"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15410,7 +15410,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>ROUND(B2*65536,0)</f>
+        <f>ROUND(B2*65535,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15423,7 +15423,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="1">ROUND(B3*65536,0)</f>
+        <f t="shared" ref="C3:C66" si="1">ROUND(B3*65535,0)</f>
         <v>512</v>
       </c>
     </row>
@@ -16255,8 +16255,8 @@
         <v>0.5078125</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="3">ROUND(B67*65536,0)</f>
-        <v>33280</v>
+        <f t="shared" ref="C67:C130" si="3">ROUND(B67*65535,0)</f>
+        <v>33279</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
@@ -16269,7 +16269,7 @@
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
-        <v>33792</v>
+        <v>33791</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
@@ -16282,7 +16282,7 @@
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
-        <v>34304</v>
+        <v>34303</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
@@ -16295,7 +16295,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
-        <v>34816</v>
+        <v>34815</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
@@ -16308,7 +16308,7 @@
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>35328</v>
+        <v>35327</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
-        <v>35840</v>
+        <v>35839</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
-        <v>36352</v>
+        <v>36351</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
@@ -16347,7 +16347,7 @@
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
-        <v>36864</v>
+        <v>36863</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
-        <v>37376</v>
+        <v>37375</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
-        <v>37888</v>
+        <v>37887</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
@@ -16386,7 +16386,7 @@
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
-        <v>38400</v>
+        <v>38399</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
-        <v>38912</v>
+        <v>38911</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
@@ -16412,7 +16412,7 @@
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
-        <v>39424</v>
+        <v>39423</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
@@ -16425,7 +16425,7 @@
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
-        <v>39936</v>
+        <v>39935</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
@@ -16438,7 +16438,7 @@
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
-        <v>40448</v>
+        <v>40447</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
-        <v>40960</v>
+        <v>40959</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
-        <v>41472</v>
+        <v>41471</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
@@ -16477,7 +16477,7 @@
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
-        <v>41984</v>
+        <v>41983</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
-        <v>42496</v>
+        <v>42495</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
@@ -16503,7 +16503,7 @@
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
-        <v>43008</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
@@ -16516,7 +16516,7 @@
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
-        <v>43520</v>
+        <v>43519</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
@@ -16529,7 +16529,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
-        <v>44032</v>
+        <v>44031</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
@@ -16542,7 +16542,7 @@
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
-        <v>44544</v>
+        <v>44543</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
@@ -16555,7 +16555,7 @@
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
-        <v>45056</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
@@ -16568,7 +16568,7 @@
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
-        <v>45568</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
@@ -16581,7 +16581,7 @@
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
-        <v>46080</v>
+        <v>46079</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
@@ -16594,7 +16594,7 @@
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
-        <v>46592</v>
+        <v>46591</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
@@ -16607,7 +16607,7 @@
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
-        <v>47104</v>
+        <v>47103</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
@@ -16620,7 +16620,7 @@
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
-        <v>47616</v>
+        <v>47615</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
-        <v>48128</v>
+        <v>48127</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
@@ -16646,7 +16646,7 @@
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
-        <v>48640</v>
+        <v>48639</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
-        <v>49152</v>
+        <v>49151</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
@@ -16672,7 +16672,7 @@
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
-        <v>49664</v>
+        <v>49663</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
@@ -16685,7 +16685,7 @@
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
-        <v>50176</v>
+        <v>50175</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
@@ -16698,7 +16698,7 @@
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
-        <v>50688</v>
+        <v>50687</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="C102">
         <f t="shared" si="3"/>
-        <v>51200</v>
+        <v>51199</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
@@ -16724,7 +16724,7 @@
       </c>
       <c r="C103">
         <f t="shared" si="3"/>
-        <v>51712</v>
+        <v>51711</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
@@ -16737,7 +16737,7 @@
       </c>
       <c r="C104">
         <f t="shared" si="3"/>
-        <v>52224</v>
+        <v>52223</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
@@ -16750,7 +16750,7 @@
       </c>
       <c r="C105">
         <f t="shared" si="3"/>
-        <v>52736</v>
+        <v>52735</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
@@ -16763,7 +16763,7 @@
       </c>
       <c r="C106">
         <f t="shared" si="3"/>
-        <v>53248</v>
+        <v>53247</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="C107">
         <f t="shared" si="3"/>
-        <v>53760</v>
+        <v>53759</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
@@ -16789,7 +16789,7 @@
       </c>
       <c r="C108">
         <f t="shared" si="3"/>
-        <v>54272</v>
+        <v>54271</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
@@ -16802,7 +16802,7 @@
       </c>
       <c r="C109">
         <f t="shared" si="3"/>
-        <v>54784</v>
+        <v>54783</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
@@ -16815,7 +16815,7 @@
       </c>
       <c r="C110">
         <f t="shared" si="3"/>
-        <v>55296</v>
+        <v>55295</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
@@ -16828,7 +16828,7 @@
       </c>
       <c r="C111">
         <f t="shared" si="3"/>
-        <v>55808</v>
+        <v>55807</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
@@ -16841,7 +16841,7 @@
       </c>
       <c r="C112">
         <f t="shared" si="3"/>
-        <v>56320</v>
+        <v>56319</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
@@ -16854,7 +16854,7 @@
       </c>
       <c r="C113">
         <f t="shared" si="3"/>
-        <v>56832</v>
+        <v>56831</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
@@ -16867,7 +16867,7 @@
       </c>
       <c r="C114">
         <f t="shared" si="3"/>
-        <v>57344</v>
+        <v>57343</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
@@ -16880,7 +16880,7 @@
       </c>
       <c r="C115">
         <f t="shared" si="3"/>
-        <v>57856</v>
+        <v>57855</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
@@ -16893,7 +16893,7 @@
       </c>
       <c r="C116">
         <f t="shared" si="3"/>
-        <v>58368</v>
+        <v>58367</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="C117">
         <f t="shared" si="3"/>
-        <v>58880</v>
+        <v>58879</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="C118">
         <f t="shared" si="3"/>
-        <v>59392</v>
+        <v>59391</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="C119">
         <f t="shared" si="3"/>
-        <v>59904</v>
+        <v>59903</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
@@ -16945,7 +16945,7 @@
       </c>
       <c r="C120">
         <f t="shared" si="3"/>
-        <v>60416</v>
+        <v>60415</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
@@ -16958,7 +16958,7 @@
       </c>
       <c r="C121">
         <f t="shared" si="3"/>
-        <v>60928</v>
+        <v>60927</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
@@ -16971,7 +16971,7 @@
       </c>
       <c r="C122">
         <f t="shared" si="3"/>
-        <v>61440</v>
+        <v>61439</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="C123">
         <f t="shared" si="3"/>
-        <v>61952</v>
+        <v>61951</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
@@ -16997,7 +16997,7 @@
       </c>
       <c r="C124">
         <f t="shared" si="3"/>
-        <v>62464</v>
+        <v>62463</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
@@ -17010,7 +17010,7 @@
       </c>
       <c r="C125">
         <f t="shared" si="3"/>
-        <v>62976</v>
+        <v>62975</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="C126">
         <f t="shared" si="3"/>
-        <v>63488</v>
+        <v>63487</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
@@ -17036,7 +17036,7 @@
       </c>
       <c r="C127">
         <f t="shared" si="3"/>
-        <v>64000</v>
+        <v>63999</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
@@ -17049,7 +17049,7 @@
       </c>
       <c r="C128">
         <f t="shared" si="3"/>
-        <v>64512</v>
+        <v>64511</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
@@ -17062,7 +17062,7 @@
       </c>
       <c r="C129">
         <f t="shared" si="3"/>
-        <v>65024</v>
+        <v>65023</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
@@ -17075,7 +17075,7 @@
       </c>
       <c r="C130">
         <f t="shared" si="3"/>
-        <v>-65536</v>
+        <v>-65535</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
@@ -17087,8 +17087,8 @@
         <v>-0.9921875</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C194" si="5">ROUND(B131*65536,0)</f>
-        <v>-65024</v>
+        <f t="shared" ref="C131:C194" si="5">ROUND(B131*65535,0)</f>
+        <v>-65023</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
@@ -17101,7 +17101,7 @@
       </c>
       <c r="C132">
         <f t="shared" si="5"/>
-        <v>-64512</v>
+        <v>-64511</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
@@ -17114,7 +17114,7 @@
       </c>
       <c r="C133">
         <f t="shared" si="5"/>
-        <v>-64000</v>
+        <v>-63999</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="C134">
         <f t="shared" si="5"/>
-        <v>-63488</v>
+        <v>-63487</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
@@ -17140,7 +17140,7 @@
       </c>
       <c r="C135">
         <f t="shared" si="5"/>
-        <v>-62976</v>
+        <v>-62975</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
@@ -17153,7 +17153,7 @@
       </c>
       <c r="C136">
         <f t="shared" si="5"/>
-        <v>-62464</v>
+        <v>-62463</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
@@ -17166,7 +17166,7 @@
       </c>
       <c r="C137">
         <f t="shared" si="5"/>
-        <v>-61952</v>
+        <v>-61951</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
@@ -17179,7 +17179,7 @@
       </c>
       <c r="C138">
         <f t="shared" si="5"/>
-        <v>-61440</v>
+        <v>-61439</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
@@ -17192,7 +17192,7 @@
       </c>
       <c r="C139">
         <f t="shared" si="5"/>
-        <v>-60928</v>
+        <v>-60927</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="C140">
         <f t="shared" si="5"/>
-        <v>-60416</v>
+        <v>-60415</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
@@ -17218,7 +17218,7 @@
       </c>
       <c r="C141">
         <f t="shared" si="5"/>
-        <v>-59904</v>
+        <v>-59903</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="C142">
         <f t="shared" si="5"/>
-        <v>-59392</v>
+        <v>-59391</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
@@ -17244,7 +17244,7 @@
       </c>
       <c r="C143">
         <f t="shared" si="5"/>
-        <v>-58880</v>
+        <v>-58879</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
@@ -17257,7 +17257,7 @@
       </c>
       <c r="C144">
         <f t="shared" si="5"/>
-        <v>-58368</v>
+        <v>-58367</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="C145">
         <f t="shared" si="5"/>
-        <v>-57856</v>
+        <v>-57855</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="C146">
         <f t="shared" si="5"/>
-        <v>-57344</v>
+        <v>-57343</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
@@ -17296,7 +17296,7 @@
       </c>
       <c r="C147">
         <f t="shared" si="5"/>
-        <v>-56832</v>
+        <v>-56831</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
@@ -17309,7 +17309,7 @@
       </c>
       <c r="C148">
         <f t="shared" si="5"/>
-        <v>-56320</v>
+        <v>-56319</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
@@ -17322,7 +17322,7 @@
       </c>
       <c r="C149">
         <f t="shared" si="5"/>
-        <v>-55808</v>
+        <v>-55807</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="C150">
         <f t="shared" si="5"/>
-        <v>-55296</v>
+        <v>-55295</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="C151">
         <f t="shared" si="5"/>
-        <v>-54784</v>
+        <v>-54783</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
@@ -17361,7 +17361,7 @@
       </c>
       <c r="C152">
         <f t="shared" si="5"/>
-        <v>-54272</v>
+        <v>-54271</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
@@ -17374,7 +17374,7 @@
       </c>
       <c r="C153">
         <f t="shared" si="5"/>
-        <v>-53760</v>
+        <v>-53759</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
@@ -17387,7 +17387,7 @@
       </c>
       <c r="C154">
         <f t="shared" si="5"/>
-        <v>-53248</v>
+        <v>-53247</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
@@ -17400,7 +17400,7 @@
       </c>
       <c r="C155">
         <f t="shared" si="5"/>
-        <v>-52736</v>
+        <v>-52735</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
@@ -17413,7 +17413,7 @@
       </c>
       <c r="C156">
         <f t="shared" si="5"/>
-        <v>-52224</v>
+        <v>-52223</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
@@ -17426,7 +17426,7 @@
       </c>
       <c r="C157">
         <f t="shared" si="5"/>
-        <v>-51712</v>
+        <v>-51711</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
@@ -17439,7 +17439,7 @@
       </c>
       <c r="C158">
         <f t="shared" si="5"/>
-        <v>-51200</v>
+        <v>-51199</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="C159">
         <f t="shared" si="5"/>
-        <v>-50688</v>
+        <v>-50687</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
@@ -17465,7 +17465,7 @@
       </c>
       <c r="C160">
         <f t="shared" si="5"/>
-        <v>-50176</v>
+        <v>-50175</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
@@ -17478,7 +17478,7 @@
       </c>
       <c r="C161">
         <f t="shared" si="5"/>
-        <v>-49664</v>
+        <v>-49663</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
@@ -17491,7 +17491,7 @@
       </c>
       <c r="C162">
         <f t="shared" si="5"/>
-        <v>-49152</v>
+        <v>-49151</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
@@ -17504,7 +17504,7 @@
       </c>
       <c r="C163">
         <f t="shared" si="5"/>
-        <v>-48640</v>
+        <v>-48639</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
@@ -17517,7 +17517,7 @@
       </c>
       <c r="C164">
         <f t="shared" si="5"/>
-        <v>-48128</v>
+        <v>-48127</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
@@ -17530,7 +17530,7 @@
       </c>
       <c r="C165">
         <f t="shared" si="5"/>
-        <v>-47616</v>
+        <v>-47615</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="C166">
         <f t="shared" si="5"/>
-        <v>-47104</v>
+        <v>-47103</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="C167">
         <f t="shared" si="5"/>
-        <v>-46592</v>
+        <v>-46591</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
@@ -17569,7 +17569,7 @@
       </c>
       <c r="C168">
         <f t="shared" si="5"/>
-        <v>-46080</v>
+        <v>-46079</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
@@ -17582,7 +17582,7 @@
       </c>
       <c r="C169">
         <f t="shared" si="5"/>
-        <v>-45568</v>
+        <v>-45567</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="C170">
         <f t="shared" si="5"/>
-        <v>-45056</v>
+        <v>-45055</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="C171">
         <f t="shared" si="5"/>
-        <v>-44544</v>
+        <v>-44543</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
@@ -17621,7 +17621,7 @@
       </c>
       <c r="C172">
         <f t="shared" si="5"/>
-        <v>-44032</v>
+        <v>-44031</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
@@ -17634,7 +17634,7 @@
       </c>
       <c r="C173">
         <f t="shared" si="5"/>
-        <v>-43520</v>
+        <v>-43519</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
@@ -17647,7 +17647,7 @@
       </c>
       <c r="C174">
         <f t="shared" si="5"/>
-        <v>-43008</v>
+        <v>-43007</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
@@ -17660,7 +17660,7 @@
       </c>
       <c r="C175">
         <f t="shared" si="5"/>
-        <v>-42496</v>
+        <v>-42495</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
@@ -17673,7 +17673,7 @@
       </c>
       <c r="C176">
         <f t="shared" si="5"/>
-        <v>-41984</v>
+        <v>-41983</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
@@ -17686,7 +17686,7 @@
       </c>
       <c r="C177">
         <f t="shared" si="5"/>
-        <v>-41472</v>
+        <v>-41471</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="C178">
         <f t="shared" si="5"/>
-        <v>-40960</v>
+        <v>-40959</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
@@ -17712,7 +17712,7 @@
       </c>
       <c r="C179">
         <f t="shared" si="5"/>
-        <v>-40448</v>
+        <v>-40447</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
@@ -17725,7 +17725,7 @@
       </c>
       <c r="C180">
         <f t="shared" si="5"/>
-        <v>-39936</v>
+        <v>-39935</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
@@ -17738,7 +17738,7 @@
       </c>
       <c r="C181">
         <f t="shared" si="5"/>
-        <v>-39424</v>
+        <v>-39423</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="C182">
         <f t="shared" si="5"/>
-        <v>-38912</v>
+        <v>-38911</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
@@ -17764,7 +17764,7 @@
       </c>
       <c r="C183">
         <f t="shared" si="5"/>
-        <v>-38400</v>
+        <v>-38399</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
@@ -17777,7 +17777,7 @@
       </c>
       <c r="C184">
         <f t="shared" si="5"/>
-        <v>-37888</v>
+        <v>-37887</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="C185">
         <f t="shared" si="5"/>
-        <v>-37376</v>
+        <v>-37375</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="C186">
         <f t="shared" si="5"/>
-        <v>-36864</v>
+        <v>-36863</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
@@ -17816,7 +17816,7 @@
       </c>
       <c r="C187">
         <f t="shared" si="5"/>
-        <v>-36352</v>
+        <v>-36351</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
@@ -17829,7 +17829,7 @@
       </c>
       <c r="C188">
         <f t="shared" si="5"/>
-        <v>-35840</v>
+        <v>-35839</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
@@ -17842,7 +17842,7 @@
       </c>
       <c r="C189">
         <f t="shared" si="5"/>
-        <v>-35328</v>
+        <v>-35327</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
@@ -17855,7 +17855,7 @@
       </c>
       <c r="C190">
         <f t="shared" si="5"/>
-        <v>-34816</v>
+        <v>-34815</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
@@ -17868,7 +17868,7 @@
       </c>
       <c r="C191">
         <f t="shared" si="5"/>
-        <v>-34304</v>
+        <v>-34303</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="C192">
         <f t="shared" si="5"/>
-        <v>-33792</v>
+        <v>-33791</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
@@ -17894,7 +17894,7 @@
       </c>
       <c r="C193">
         <f t="shared" si="5"/>
-        <v>-33280</v>
+        <v>-33279</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
@@ -17919,7 +17919,7 @@
         <v>-0.4921875</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C257" si="7">ROUND(B195*65536,0)</f>
+        <f t="shared" ref="C195:C257" si="7">ROUND(B195*65535,0)</f>
         <v>-32256</v>
       </c>
     </row>
